--- a/level-1/uri/phase-1-1/uri-phase-1-1.xlsx
+++ b/level-1/uri/phase-1-1/uri-phase-1-1.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2467FDB1-4EB6-43A7-93B5-2926355BE7AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002CA267-94B8-48C3-A6BC-51B440E90CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="uri level 1-1" sheetId="14" r:id="rId1"/>
+    <sheet name="uri 1.1" sheetId="14" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="190">
   <si>
     <t>Problem Link</t>
   </si>
@@ -180,9 +193,6 @@
   </si>
   <si>
     <t>https://www.beecrowd.com.br/judge/en/problems/view/1759</t>
-  </si>
-  <si>
-    <t>https://www.beecrowd.com.br/judge/en/problems/view/1017</t>
   </si>
   <si>
     <t>Ad-Hoc</t>
@@ -781,6 +791,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -807,18 +829,6 @@
     </xf>
     <xf numFmtId="10" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1314,7 +1324,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J184"/>
+  <dimension ref="A1:J183"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1334,90 +1344,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="10" t="s">
+      <c r="I1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="11"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="4" t="e">
-        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C184)</f>
+        <f>AVERAGE(C4:C183)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D3" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(D4:D183)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E3" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(E4:E183)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F3" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F4:F183)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G3" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(G4:G183)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H3" s="4">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H4:H183)</f>
         <v>0</v>
       </c>
       <c r="I3" s="3">
-        <f>COUNTA(I4:I834)</f>
+        <f>COUNTA(I4:I833)</f>
         <v>0</v>
       </c>
       <c r="J3" s="3">
-        <f>COUNTA(J4:J954)</f>
-        <v>175</v>
+        <f>COUNTA(J4:J953)</f>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="11">
         <v>1</v>
       </c>
       <c r="C4" s="5"/>
@@ -1430,15 +1440,15 @@
         <v>0</v>
       </c>
       <c r="I4" s="9"/>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="11">
         <v>1</v>
       </c>
       <c r="C5" s="5"/>
@@ -1450,15 +1460,15 @@
         <f>SUM(C5:G5)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="11">
         <v>1</v>
       </c>
       <c r="C6" s="5"/>
@@ -1471,15 +1481,15 @@
         <v>0</v>
       </c>
       <c r="I6" s="9"/>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="11">
         <v>1</v>
       </c>
       <c r="C7" s="5"/>
@@ -1492,15 +1502,15 @@
         <v>0</v>
       </c>
       <c r="I7" s="9"/>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="12">
         <v>1</v>
       </c>
       <c r="C8" s="5"/>
@@ -1509,19 +1519,19 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="8">
-        <f t="shared" ref="H8:H71" si="1">SUM(C8:G8)</f>
+        <f>SUM(C8:G8)</f>
         <v>0</v>
       </c>
       <c r="I8" s="9"/>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="11">
         <v>1</v>
       </c>
       <c r="C9" s="5"/>
@@ -1530,19 +1540,19 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C9:G9)</f>
         <v>0</v>
       </c>
       <c r="I9" s="9"/>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="12">
         <v>1</v>
       </c>
       <c r="C10" s="5"/>
@@ -1551,19 +1561,19 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C10:G10)</f>
         <v>0</v>
       </c>
       <c r="I10" s="9"/>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="11">
         <v>1</v>
       </c>
       <c r="C11" s="5"/>
@@ -1572,19 +1582,19 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C11:G11)</f>
         <v>0</v>
       </c>
       <c r="I11" s="9"/>
-      <c r="J11" s="22" t="s">
+      <c r="J11" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="11">
         <v>1</v>
       </c>
       <c r="C12" s="5"/>
@@ -1593,19 +1603,19 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C12:G12)</f>
         <v>0</v>
       </c>
       <c r="I12" s="9"/>
-      <c r="J12" s="22" t="s">
+      <c r="J12" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="11">
         <v>1</v>
       </c>
       <c r="C13" s="5"/>
@@ -1614,19 +1624,19 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C13:G13)</f>
         <v>0</v>
       </c>
       <c r="I13" s="9"/>
-      <c r="J13" s="22" t="s">
+      <c r="J13" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="11">
         <v>1</v>
       </c>
       <c r="C14" s="5"/>
@@ -1635,19 +1645,19 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C14:G14)</f>
         <v>0</v>
       </c>
       <c r="I14" s="9"/>
-      <c r="J14" s="22" t="s">
+      <c r="J14" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="12">
         <v>1</v>
       </c>
       <c r="C15" s="5"/>
@@ -1656,19 +1666,19 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C15:G15)</f>
         <v>0</v>
       </c>
       <c r="I15" s="9"/>
-      <c r="J15" s="22" t="s">
+      <c r="J15" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="11">
         <v>1</v>
       </c>
       <c r="C16" s="5"/>
@@ -1677,19 +1687,19 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C16:G16)</f>
         <v>0</v>
       </c>
       <c r="I16" s="9"/>
-      <c r="J16" s="22" t="s">
+      <c r="J16" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="11">
         <v>1</v>
       </c>
       <c r="C17" s="5"/>
@@ -1698,19 +1708,19 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C17:G17)</f>
         <v>0</v>
       </c>
       <c r="I17" s="9"/>
-      <c r="J17" s="22" t="s">
+      <c r="J17" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="11">
         <v>1</v>
       </c>
       <c r="C18" s="5"/>
@@ -1719,19 +1729,19 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C18:G18)</f>
         <v>0</v>
       </c>
       <c r="I18" s="9"/>
-      <c r="J18" s="22" t="s">
+      <c r="J18" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="11">
         <v>1</v>
       </c>
       <c r="C19" s="5"/>
@@ -1740,19 +1750,19 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C19:G19)</f>
         <v>0</v>
       </c>
       <c r="I19" s="9"/>
-      <c r="J19" s="22" t="s">
+      <c r="J19" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="12">
         <v>1</v>
       </c>
       <c r="C20" s="5"/>
@@ -1761,19 +1771,19 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C20:G20)</f>
         <v>0</v>
       </c>
       <c r="I20" s="9"/>
-      <c r="J20" s="22" t="s">
+      <c r="J20" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="11">
         <v>1</v>
       </c>
       <c r="C21" s="5"/>
@@ -1782,19 +1792,19 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C21:G21)</f>
         <v>0</v>
       </c>
       <c r="I21" s="9"/>
-      <c r="J21" s="22" t="s">
+      <c r="J21" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B22" s="12">
         <v>1</v>
       </c>
       <c r="C22" s="5"/>
@@ -1803,19 +1813,19 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C22:G22)</f>
         <v>0</v>
       </c>
       <c r="I22" s="9"/>
-      <c r="J22" s="22" t="s">
+      <c r="J22" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23" s="11">
         <v>1</v>
       </c>
       <c r="C23" s="5"/>
@@ -1824,19 +1834,19 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C23:G23)</f>
         <v>0</v>
       </c>
       <c r="I23" s="9"/>
-      <c r="J23" s="22" t="s">
+      <c r="J23" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="11">
         <v>1</v>
       </c>
       <c r="C24" s="5"/>
@@ -1845,19 +1855,19 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C24:G24)</f>
         <v>0</v>
       </c>
       <c r="I24" s="9"/>
-      <c r="J24" s="22" t="s">
+      <c r="J24" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="11">
         <v>1</v>
       </c>
       <c r="C25" s="5"/>
@@ -1866,19 +1876,19 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C25:G25)</f>
         <v>0</v>
       </c>
       <c r="I25" s="9"/>
-      <c r="J25" s="22" t="s">
+      <c r="J25" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="11">
         <v>1</v>
       </c>
       <c r="C26" s="5"/>
@@ -1887,19 +1897,19 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C26:G26)</f>
         <v>0</v>
       </c>
       <c r="I26" s="9"/>
-      <c r="J26" s="22" t="s">
+      <c r="J26" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="20">
+      <c r="B27" s="11">
         <v>1</v>
       </c>
       <c r="C27" s="5"/>
@@ -1908,19 +1918,19 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C27:G27)</f>
         <v>0</v>
       </c>
       <c r="I27" s="9"/>
-      <c r="J27" s="22" t="s">
+      <c r="J27" s="13" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="20">
+      <c r="B28" s="11">
         <v>1</v>
       </c>
       <c r="C28" s="5"/>
@@ -1929,19 +1939,19 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C28:G28)</f>
         <v>0</v>
       </c>
       <c r="I28" s="9"/>
-      <c r="J28" s="22" t="s">
+      <c r="J28" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B29" s="12">
         <v>1</v>
       </c>
       <c r="C29" s="5"/>
@@ -1950,19 +1960,19 @@
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C29:G29)</f>
         <v>0</v>
       </c>
       <c r="I29" s="9"/>
-      <c r="J29" s="22" t="s">
+      <c r="J29" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="20">
+      <c r="B30" s="11">
         <v>1</v>
       </c>
       <c r="C30" s="5"/>
@@ -1971,19 +1981,19 @@
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C30:G30)</f>
         <v>0</v>
       </c>
       <c r="I30" s="9"/>
-      <c r="J30" s="22" t="s">
+      <c r="J30" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="21">
+      <c r="B31" s="12">
         <v>1</v>
       </c>
       <c r="C31" s="5"/>
@@ -1992,19 +2002,19 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C31:G31)</f>
         <v>0</v>
       </c>
       <c r="I31" s="9"/>
-      <c r="J31" s="22" t="s">
+      <c r="J31" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="20">
+      <c r="B32" s="11">
         <v>1</v>
       </c>
       <c r="C32" s="5"/>
@@ -2013,19 +2023,19 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C32:G32)</f>
         <v>0</v>
       </c>
       <c r="I32" s="9"/>
-      <c r="J32" s="22" t="s">
+      <c r="J32" s="13" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="20">
+      <c r="B33" s="11">
         <v>1</v>
       </c>
       <c r="C33" s="5"/>
@@ -2034,19 +2044,19 @@
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C33:G33)</f>
         <v>0</v>
       </c>
       <c r="I33" s="9"/>
-      <c r="J33" s="22" t="s">
+      <c r="J33" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="20">
+      <c r="B34" s="11">
         <v>1</v>
       </c>
       <c r="C34" s="5"/>
@@ -2055,19 +2065,19 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C34:G34)</f>
         <v>0</v>
       </c>
       <c r="I34" s="9"/>
-      <c r="J34" s="22" t="s">
+      <c r="J34" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="20">
+      <c r="B35" s="11">
         <v>1</v>
       </c>
       <c r="C35" s="5"/>
@@ -2076,19 +2086,19 @@
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C35:G35)</f>
         <v>0</v>
       </c>
       <c r="I35" s="9"/>
-      <c r="J35" s="22" t="s">
+      <c r="J35" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="21">
+      <c r="B36" s="12">
         <v>1</v>
       </c>
       <c r="C36" s="5"/>
@@ -2097,19 +2107,19 @@
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C36:G36)</f>
         <v>0</v>
       </c>
       <c r="I36" s="9"/>
-      <c r="J36" s="22" t="s">
+      <c r="J36" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="20">
+      <c r="B37" s="11">
         <v>1</v>
       </c>
       <c r="C37" s="5"/>
@@ -2118,19 +2128,19 @@
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C37:G37)</f>
         <v>0</v>
       </c>
       <c r="I37" s="9"/>
-      <c r="J37" s="22" t="s">
+      <c r="J37" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="20">
+      <c r="B38" s="11">
         <v>1</v>
       </c>
       <c r="C38" s="5"/>
@@ -2139,19 +2149,19 @@
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C38:G38)</f>
         <v>0</v>
       </c>
       <c r="I38" s="9"/>
-      <c r="J38" s="22" t="s">
+      <c r="J38" s="13" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="20">
+      <c r="B39" s="11">
         <v>1</v>
       </c>
       <c r="C39" s="5"/>
@@ -2160,19 +2170,19 @@
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C39:G39)</f>
         <v>0</v>
       </c>
       <c r="I39" s="9"/>
-      <c r="J39" s="22" t="s">
+      <c r="J39" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="20">
+      <c r="B40" s="11">
         <v>1</v>
       </c>
       <c r="C40" s="5"/>
@@ -2181,19 +2191,19 @@
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C40:G40)</f>
         <v>0</v>
       </c>
       <c r="I40" s="9"/>
-      <c r="J40" s="22" t="s">
+      <c r="J40" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="21">
+      <c r="B41" s="12">
         <v>1</v>
       </c>
       <c r="C41" s="5"/>
@@ -2202,19 +2212,19 @@
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C41:G41)</f>
         <v>0</v>
       </c>
       <c r="I41" s="9"/>
-      <c r="J41" s="22" t="s">
+      <c r="J41" s="13" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="20">
+      <c r="B42" s="11">
         <v>1</v>
       </c>
       <c r="C42" s="5"/>
@@ -2223,19 +2233,19 @@
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C42:G42)</f>
         <v>0</v>
       </c>
       <c r="I42" s="9"/>
-      <c r="J42" s="22" t="s">
+      <c r="J42" s="13" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="21">
+      <c r="B43" s="12">
         <v>1</v>
       </c>
       <c r="C43" s="5"/>
@@ -2244,19 +2254,19 @@
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C43:G43)</f>
         <v>0</v>
       </c>
       <c r="I43" s="9"/>
-      <c r="J43" s="22" t="s">
+      <c r="J43" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="20">
+      <c r="B44" s="11">
         <v>1</v>
       </c>
       <c r="C44" s="5"/>
@@ -2265,19 +2275,19 @@
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C44:G44)</f>
         <v>0</v>
       </c>
       <c r="I44" s="9"/>
-      <c r="J44" s="22" t="s">
+      <c r="J44" s="13" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="20">
+      <c r="B45" s="11">
         <v>1</v>
       </c>
       <c r="C45" s="5"/>
@@ -2286,19 +2296,19 @@
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C45:G45)</f>
         <v>0</v>
       </c>
       <c r="I45" s="9"/>
-      <c r="J45" s="22" t="s">
+      <c r="J45" s="13" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="20">
+      <c r="B46" s="11">
         <v>1</v>
       </c>
       <c r="C46" s="5"/>
@@ -2307,19 +2317,19 @@
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C46:G46)</f>
         <v>0</v>
       </c>
       <c r="I46" s="9"/>
-      <c r="J46" s="22" t="s">
+      <c r="J46" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="20">
+      <c r="B47" s="11">
         <v>1</v>
       </c>
       <c r="C47" s="5"/>
@@ -2328,19 +2338,19 @@
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C47:G47)</f>
         <v>0</v>
       </c>
       <c r="I47" s="9"/>
-      <c r="J47" s="22" t="s">
+      <c r="J47" s="13" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="20">
+      <c r="A48" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="11">
         <v>1</v>
       </c>
       <c r="C48" s="5"/>
@@ -2349,19 +2359,19 @@
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C48:G48)</f>
         <v>0</v>
       </c>
       <c r="I48" s="9"/>
-      <c r="J48" s="22" t="s">
-        <v>55</v>
+      <c r="J48" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B49" s="20">
+      <c r="A49" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="11">
         <v>1</v>
       </c>
       <c r="C49" s="5"/>
@@ -2370,19 +2380,19 @@
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C49:G49)</f>
         <v>0</v>
       </c>
       <c r="I49" s="9"/>
-      <c r="J49" s="22" t="s">
+      <c r="J49" s="13" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B50" s="20">
+      <c r="A50" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="11">
         <v>1</v>
       </c>
       <c r="C50" s="5"/>
@@ -2391,19 +2401,19 @@
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C50:G50)</f>
         <v>0</v>
       </c>
       <c r="I50" s="9"/>
-      <c r="J50" s="22" t="s">
+      <c r="J50" s="13" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="20">
+      <c r="A51" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="11">
         <v>1</v>
       </c>
       <c r="C51" s="5"/>
@@ -2412,19 +2422,19 @@
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C51:G51)</f>
         <v>0</v>
       </c>
       <c r="I51" s="9"/>
-      <c r="J51" s="22" t="s">
+      <c r="J51" s="13" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" s="20">
+      <c r="A52" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="11">
         <v>1</v>
       </c>
       <c r="C52" s="5"/>
@@ -2433,19 +2443,19 @@
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C52:G52)</f>
         <v>0</v>
       </c>
       <c r="I52" s="9"/>
-      <c r="J52" s="22" t="s">
+      <c r="J52" s="13" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" s="20">
+      <c r="A53" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="11">
         <v>1</v>
       </c>
       <c r="C53" s="5"/>
@@ -2454,19 +2464,19 @@
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C53:G53)</f>
         <v>0</v>
       </c>
       <c r="I53" s="9"/>
-      <c r="J53" s="22" t="s">
+      <c r="J53" s="13" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" s="20">
+      <c r="A54" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="11">
         <v>1</v>
       </c>
       <c r="C54" s="5"/>
@@ -2475,19 +2485,19 @@
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C54:G54)</f>
         <v>0</v>
       </c>
       <c r="I54" s="9"/>
-      <c r="J54" s="22" t="s">
+      <c r="J54" s="13" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" s="20">
+      <c r="A55" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="11">
         <v>1</v>
       </c>
       <c r="C55" s="5"/>
@@ -2496,19 +2506,19 @@
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C55:G55)</f>
         <v>0</v>
       </c>
       <c r="I55" s="9"/>
-      <c r="J55" s="22" t="s">
+      <c r="J55" s="13" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" s="20">
+      <c r="A56" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="11">
         <v>1</v>
       </c>
       <c r="C56" s="5"/>
@@ -2517,19 +2527,19 @@
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C56:G56)</f>
         <v>0</v>
       </c>
       <c r="I56" s="9"/>
-      <c r="J56" s="22" t="s">
+      <c r="J56" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" s="20">
+      <c r="A57" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="11">
         <v>1</v>
       </c>
       <c r="C57" s="5"/>
@@ -2538,19 +2548,19 @@
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C57:G57)</f>
         <v>0</v>
       </c>
       <c r="I57" s="9"/>
-      <c r="J57" s="22" t="s">
+      <c r="J57" s="13" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" s="20">
+      <c r="A58" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="11">
         <v>1</v>
       </c>
       <c r="C58" s="5"/>
@@ -2559,19 +2569,19 @@
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C58:G58)</f>
         <v>0</v>
       </c>
       <c r="I58" s="9"/>
-      <c r="J58" s="22" t="s">
+      <c r="J58" s="13" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" s="20">
+      <c r="A59" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" s="11">
         <v>1</v>
       </c>
       <c r="C59" s="5"/>
@@ -2580,19 +2590,19 @@
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C59:G59)</f>
         <v>0</v>
       </c>
       <c r="I59" s="9"/>
-      <c r="J59" s="22" t="s">
+      <c r="J59" s="13" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B60" s="20">
+      <c r="A60" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" s="11">
         <v>1</v>
       </c>
       <c r="C60" s="5"/>
@@ -2601,19 +2611,19 @@
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C60:G60)</f>
         <v>0</v>
       </c>
       <c r="I60" s="9"/>
-      <c r="J60" s="22" t="s">
+      <c r="J60" s="13" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B61" s="20">
+      <c r="A61" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B61" s="11">
         <v>1</v>
       </c>
       <c r="C61" s="5"/>
@@ -2622,19 +2632,19 @@
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C61:G61)</f>
         <v>0</v>
       </c>
       <c r="I61" s="9"/>
-      <c r="J61" s="22" t="s">
+      <c r="J61" s="13" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B62" s="20">
+      <c r="A62" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62" s="11">
         <v>1</v>
       </c>
       <c r="C62" s="5"/>
@@ -2643,19 +2653,19 @@
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C62:G62)</f>
         <v>0</v>
       </c>
       <c r="I62" s="9"/>
-      <c r="J62" s="22" t="s">
+      <c r="J62" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B63" s="20">
+      <c r="A63" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B63" s="11">
         <v>1</v>
       </c>
       <c r="C63" s="5"/>
@@ -2664,19 +2674,19 @@
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C63:G63)</f>
         <v>0</v>
       </c>
       <c r="I63" s="9"/>
-      <c r="J63" s="22" t="s">
+      <c r="J63" s="13" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B64" s="20">
+      <c r="A64" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B64" s="11">
         <v>1</v>
       </c>
       <c r="C64" s="5"/>
@@ -2685,19 +2695,19 @@
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C64:G64)</f>
         <v>0</v>
       </c>
       <c r="I64" s="9"/>
-      <c r="J64" s="22" t="s">
+      <c r="J64" s="13" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B65" s="20">
+      <c r="A65" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65" s="11">
         <v>1</v>
       </c>
       <c r="C65" s="5"/>
@@ -2706,19 +2716,19 @@
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C65:G65)</f>
         <v>0</v>
       </c>
       <c r="I65" s="9"/>
-      <c r="J65" s="22" t="s">
+      <c r="J65" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B66" s="20">
+      <c r="A66" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66" s="11">
         <v>1</v>
       </c>
       <c r="C66" s="5"/>
@@ -2727,19 +2737,19 @@
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C66:G66)</f>
         <v>0</v>
       </c>
       <c r="I66" s="9"/>
-      <c r="J66" s="22" t="s">
+      <c r="J66" s="13" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B67" s="20">
+      <c r="A67" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B67" s="11">
         <v>1</v>
       </c>
       <c r="C67" s="5"/>
@@ -2748,19 +2758,19 @@
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C67:G67)</f>
         <v>0</v>
       </c>
       <c r="I67" s="9"/>
-      <c r="J67" s="22" t="s">
+      <c r="J67" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B68" s="20">
+      <c r="A68" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B68" s="11">
         <v>1</v>
       </c>
       <c r="C68" s="5"/>
@@ -2769,19 +2779,19 @@
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C68:G68)</f>
         <v>0</v>
       </c>
       <c r="I68" s="9"/>
-      <c r="J68" s="22" t="s">
+      <c r="J68" s="13" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B69" s="20">
+      <c r="A69" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B69" s="11">
         <v>1</v>
       </c>
       <c r="C69" s="5"/>
@@ -2790,19 +2800,19 @@
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C69:G69)</f>
         <v>0</v>
       </c>
       <c r="I69" s="9"/>
-      <c r="J69" s="22" t="s">
+      <c r="J69" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B70" s="20">
+      <c r="A70" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B70" s="11">
         <v>1</v>
       </c>
       <c r="C70" s="5"/>
@@ -2811,19 +2821,19 @@
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C70:G70)</f>
         <v>0</v>
       </c>
       <c r="I70" s="9"/>
-      <c r="J70" s="22" t="s">
+      <c r="J70" s="13" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B71" s="20">
+      <c r="A71" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B71" s="11">
         <v>1</v>
       </c>
       <c r="C71" s="5"/>
@@ -2832,19 +2842,19 @@
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H71:H134" si="0">SUM(C71:G71)</f>
         <v>0</v>
       </c>
       <c r="I71" s="9"/>
-      <c r="J71" s="22" t="s">
+      <c r="J71" s="13" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B72" s="20">
+      <c r="A72" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B72" s="11">
         <v>1</v>
       </c>
       <c r="C72" s="5"/>
@@ -2853,19 +2863,19 @@
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="8">
-        <f t="shared" ref="H72:H135" si="2">SUM(C72:G72)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I72" s="9"/>
-      <c r="J72" s="22" t="s">
+      <c r="J72" s="13" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B73" s="20">
+      <c r="A73" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B73" s="11">
         <v>1</v>
       </c>
       <c r="C73" s="5"/>
@@ -2874,19 +2884,18 @@
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I73" s="9"/>
-      <c r="J73" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J73" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B74" s="20">
+      <c r="A74" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B74" s="11">
         <v>1</v>
       </c>
       <c r="C74" s="5"/>
@@ -2895,18 +2904,18 @@
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J74" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J74" s="13" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B75" s="20">
+      <c r="A75" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B75" s="11">
         <v>1</v>
       </c>
       <c r="C75" s="5"/>
@@ -2915,18 +2924,18 @@
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J75" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J75" s="13" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B76" s="20">
+      <c r="A76" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B76" s="11">
         <v>1</v>
       </c>
       <c r="C76" s="5"/>
@@ -2935,18 +2944,18 @@
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J76" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B77" s="20">
+      <c r="A77" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B77" s="11">
         <v>1</v>
       </c>
       <c r="C77" s="5"/>
@@ -2955,18 +2964,18 @@
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J77" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="13" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B78" s="20">
+      <c r="A78" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B78" s="11">
         <v>1</v>
       </c>
       <c r="C78" s="5"/>
@@ -2975,18 +2984,18 @@
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J78" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J78" s="13" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B79" s="20">
+      <c r="A79" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B79" s="11">
         <v>1</v>
       </c>
       <c r="C79" s="5"/>
@@ -2995,19 +3004,19 @@
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J79" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J79" s="13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B80" s="20">
-        <v>1</v>
+      <c r="A80" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B80" s="11">
+        <v>2</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
@@ -3015,18 +3024,18 @@
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
       <c r="H80" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J80" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="13" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B81" s="20">
+      <c r="A81" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B81" s="11">
         <v>2</v>
       </c>
       <c r="C81" s="5"/>
@@ -3035,18 +3044,18 @@
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J81" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J81" s="13" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B82" s="20">
+      <c r="A82" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B82" s="11">
         <v>2</v>
       </c>
       <c r="C82" s="5"/>
@@ -3055,18 +3064,18 @@
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J82" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J82" s="13" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B83" s="20">
+      <c r="A83" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B83" s="11">
         <v>2</v>
       </c>
       <c r="C83" s="5"/>
@@ -3075,18 +3084,18 @@
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
       <c r="H83" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J83" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J83" s="13" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B84" s="20">
+      <c r="A84" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B84" s="11">
         <v>2</v>
       </c>
       <c r="C84" s="5"/>
@@ -3095,18 +3104,18 @@
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
       <c r="H84" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J84" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="13" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B85" s="20">
+      <c r="A85" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B85" s="11">
         <v>2</v>
       </c>
       <c r="C85" s="5"/>
@@ -3115,18 +3124,18 @@
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
       <c r="H85" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J85" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J85" s="13" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B86" s="20">
+      <c r="A86" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B86" s="11">
         <v>2</v>
       </c>
       <c r="C86" s="5"/>
@@ -3135,18 +3144,18 @@
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
       <c r="H86" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J86" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J86" s="13" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B87" s="20">
+      <c r="A87" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B87" s="11">
         <v>2</v>
       </c>
       <c r="C87" s="5"/>
@@ -3155,18 +3164,18 @@
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
       <c r="H87" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J87" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J87" s="13" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B88" s="20">
+      <c r="A88" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B88" s="11">
         <v>2</v>
       </c>
       <c r="C88" s="5"/>
@@ -3175,18 +3184,18 @@
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
       <c r="H88" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J88" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J88" s="13" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B89" s="20">
+      <c r="A89" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B89" s="11">
         <v>2</v>
       </c>
       <c r="C89" s="5"/>
@@ -3195,18 +3204,18 @@
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
       <c r="H89" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J89" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J89" s="13" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B90" s="20">
+      <c r="A90" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B90" s="11">
         <v>2</v>
       </c>
       <c r="C90" s="5"/>
@@ -3215,18 +3224,18 @@
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
       <c r="H90" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J90" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J90" s="13" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B91" s="20">
+      <c r="A91" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B91" s="11">
         <v>2</v>
       </c>
       <c r="C91" s="5"/>
@@ -3235,18 +3244,18 @@
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J91" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J91" s="13" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B92" s="20">
+      <c r="A92" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B92" s="11">
         <v>2</v>
       </c>
       <c r="C92" s="5"/>
@@ -3255,18 +3264,18 @@
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
       <c r="H92" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J92" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J92" s="13" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B93" s="20">
+      <c r="A93" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B93" s="11">
         <v>2</v>
       </c>
       <c r="C93" s="5"/>
@@ -3275,18 +3284,18 @@
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
       <c r="H93" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J93" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J93" s="13" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B94" s="20">
+      <c r="A94" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B94" s="11">
         <v>2</v>
       </c>
       <c r="C94" s="5"/>
@@ -3295,18 +3304,18 @@
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J94" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J94" s="13" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B95" s="20">
+      <c r="A95" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B95" s="11">
         <v>2</v>
       </c>
       <c r="C95" s="5"/>
@@ -3315,18 +3324,18 @@
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
       <c r="H95" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J95" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J95" s="13" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B96" s="20">
+      <c r="A96" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B96" s="11">
         <v>2</v>
       </c>
       <c r="C96" s="5"/>
@@ -3335,18 +3344,18 @@
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
       <c r="H96" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J96" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="13" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B97" s="20">
+      <c r="A97" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B97" s="11">
         <v>2</v>
       </c>
       <c r="C97" s="5"/>
@@ -3355,18 +3364,18 @@
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
       <c r="H97" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J97" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J97" s="13" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B98" s="20">
+      <c r="A98" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B98" s="11">
         <v>2</v>
       </c>
       <c r="C98" s="5"/>
@@ -3375,18 +3384,18 @@
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
       <c r="H98" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J98" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J98" s="13" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B99" s="20">
+      <c r="A99" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B99" s="11">
         <v>2</v>
       </c>
       <c r="C99" s="5"/>
@@ -3395,18 +3404,18 @@
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
       <c r="H99" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J99" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J99" s="13" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B100" s="20">
+      <c r="A100" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B100" s="11">
         <v>2</v>
       </c>
       <c r="C100" s="5"/>
@@ -3415,18 +3424,18 @@
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
       <c r="H100" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J100" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J100" s="13" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B101" s="20">
+      <c r="A101" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B101" s="11">
         <v>2</v>
       </c>
       <c r="C101" s="5"/>
@@ -3435,18 +3444,18 @@
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
       <c r="H101" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J101" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J101" s="13" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B102" s="20">
+      <c r="A102" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B102" s="11">
         <v>2</v>
       </c>
       <c r="C102" s="5"/>
@@ -3455,18 +3464,18 @@
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
       <c r="H102" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J102" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J102" s="13" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B103" s="20">
+      <c r="A103" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B103" s="11">
         <v>2</v>
       </c>
       <c r="C103" s="5"/>
@@ -3475,18 +3484,18 @@
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
       <c r="H103" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J103" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J103" s="13" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B104" s="20">
+      <c r="A104" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B104" s="11">
         <v>2</v>
       </c>
       <c r="C104" s="5"/>
@@ -3495,18 +3504,18 @@
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
       <c r="H104" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J104" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J104" s="13" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B105" s="20">
+      <c r="A105" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B105" s="11">
         <v>2</v>
       </c>
       <c r="C105" s="5"/>
@@ -3515,18 +3524,18 @@
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
       <c r="H105" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J105" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J105" s="13" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B106" s="20">
+      <c r="A106" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B106" s="11">
         <v>2</v>
       </c>
       <c r="C106" s="5"/>
@@ -3535,18 +3544,18 @@
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
       <c r="H106" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J106" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J106" s="13" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B107" s="20">
+      <c r="A107" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B107" s="11">
         <v>2</v>
       </c>
       <c r="C107" s="5"/>
@@ -3555,18 +3564,18 @@
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
       <c r="H107" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J107" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J107" s="13" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B108" s="20">
+      <c r="A108" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B108" s="11">
         <v>2</v>
       </c>
       <c r="C108" s="5"/>
@@ -3575,18 +3584,18 @@
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
       <c r="H108" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J108" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J108" s="13" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B109" s="20">
+      <c r="A109" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B109" s="11">
         <v>2</v>
       </c>
       <c r="C109" s="5"/>
@@ -3595,18 +3604,18 @@
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
       <c r="H109" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J109" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J109" s="13" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B110" s="20">
+      <c r="A110" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B110" s="11">
         <v>2</v>
       </c>
       <c r="C110" s="5"/>
@@ -3615,18 +3624,18 @@
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
       <c r="H110" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J110" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J110" s="13" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B111" s="20">
+      <c r="A111" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B111" s="11">
         <v>2</v>
       </c>
       <c r="C111" s="5"/>
@@ -3635,18 +3644,18 @@
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
       <c r="H111" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J111" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J111" s="13" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B112" s="20">
+      <c r="A112" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B112" s="11">
         <v>2</v>
       </c>
       <c r="C112" s="5"/>
@@ -3655,18 +3664,18 @@
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
       <c r="H112" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J112" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J112" s="13" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B113" s="20">
+      <c r="A113" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B113" s="11">
         <v>2</v>
       </c>
       <c r="C113" s="5"/>
@@ -3675,18 +3684,18 @@
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
       <c r="H113" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J113" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J113" s="13" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B114" s="20">
+      <c r="A114" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B114" s="11">
         <v>2</v>
       </c>
       <c r="C114" s="5"/>
@@ -3695,18 +3704,18 @@
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
       <c r="H114" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J114" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J114" s="13" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B115" s="20">
+      <c r="A115" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B115" s="11">
         <v>2</v>
       </c>
       <c r="C115" s="5"/>
@@ -3715,18 +3724,18 @@
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
       <c r="H115" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J115" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J115" s="13" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B116" s="20">
+      <c r="A116" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B116" s="11">
         <v>2</v>
       </c>
       <c r="C116" s="5"/>
@@ -3735,18 +3744,18 @@
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
       <c r="H116" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J116" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J116" s="13" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B117" s="20">
+      <c r="A117" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B117" s="11">
         <v>2</v>
       </c>
       <c r="C117" s="5"/>
@@ -3755,18 +3764,18 @@
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
       <c r="H117" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J117" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J117" s="13" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B118" s="20">
+      <c r="A118" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B118" s="11">
         <v>2</v>
       </c>
       <c r="C118" s="5"/>
@@ -3775,18 +3784,18 @@
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
       <c r="H118" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J118" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J118" s="13" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B119" s="20">
+      <c r="A119" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B119" s="11">
         <v>2</v>
       </c>
       <c r="C119" s="5"/>
@@ -3795,18 +3804,18 @@
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
       <c r="H119" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J119" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J119" s="13" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B120" s="20">
+      <c r="A120" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B120" s="11">
         <v>2</v>
       </c>
       <c r="C120" s="5"/>
@@ -3815,18 +3824,18 @@
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
       <c r="H120" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J120" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J120" s="13" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B121" s="20">
+      <c r="A121" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B121" s="11">
         <v>2</v>
       </c>
       <c r="C121" s="5"/>
@@ -3835,18 +3844,18 @@
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
       <c r="H121" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J121" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J121" s="13" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B122" s="20">
+      <c r="A122" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B122" s="11">
         <v>2</v>
       </c>
       <c r="C122" s="5"/>
@@ -3855,19 +3864,19 @@
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
       <c r="H122" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J122" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J122" s="13" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B123" s="20">
-        <v>2</v>
+      <c r="A123" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B123" s="12">
+        <v>1</v>
       </c>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
@@ -3875,18 +3884,18 @@
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
       <c r="H123" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J123" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J123" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="B124" s="21">
+      <c r="B124" s="11">
         <v>1</v>
       </c>
       <c r="C124" s="5"/>
@@ -3895,18 +3904,18 @@
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
       <c r="H124" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J124" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J124" s="13" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="B125" s="20">
+      <c r="A125" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125" s="11">
         <v>1</v>
       </c>
       <c r="C125" s="5"/>
@@ -3915,18 +3924,18 @@
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
       <c r="H125" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J125" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J125" s="13" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="B126" s="20">
+      <c r="A126" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B126" s="11">
         <v>1</v>
       </c>
       <c r="C126" s="5"/>
@@ -3935,18 +3944,18 @@
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
       <c r="H126" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J126" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J126" s="13" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="B127" s="20">
+      <c r="A127" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B127" s="11">
         <v>1</v>
       </c>
       <c r="C127" s="5"/>
@@ -3955,18 +3964,18 @@
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
       <c r="H127" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J127" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J127" s="13" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="B128" s="20">
+      <c r="A128" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128" s="11">
         <v>1</v>
       </c>
       <c r="C128" s="5"/>
@@ -3975,18 +3984,18 @@
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
       <c r="H128" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J128" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J128" s="13" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="B129" s="20">
+      <c r="A129" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B129" s="11">
         <v>1</v>
       </c>
       <c r="C129" s="5"/>
@@ -3995,18 +4004,18 @@
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
       <c r="H129" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J129" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J129" s="13" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="B130" s="20">
+      <c r="A130" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130" s="11">
         <v>1</v>
       </c>
       <c r="C130" s="5"/>
@@ -4015,18 +4024,18 @@
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
       <c r="H130" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J130" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J130" s="13" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="B131" s="20">
+      <c r="A131" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131" s="12">
         <v>1</v>
       </c>
       <c r="C131" s="5"/>
@@ -4035,18 +4044,18 @@
       <c r="F131" s="5"/>
       <c r="G131" s="5"/>
       <c r="H131" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J131" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J131" s="13" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="B132" s="21">
+      <c r="A132" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132" s="12">
         <v>1</v>
       </c>
       <c r="C132" s="5"/>
@@ -4055,18 +4064,18 @@
       <c r="F132" s="5"/>
       <c r="G132" s="5"/>
       <c r="H132" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J132" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J132" s="13" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="B133" s="21">
+      <c r="A133" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B133" s="12">
         <v>1</v>
       </c>
       <c r="C133" s="5"/>
@@ -4075,18 +4084,18 @@
       <c r="F133" s="5"/>
       <c r="G133" s="5"/>
       <c r="H133" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J133" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J133" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="10" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="B134" s="21">
+      <c r="B134" s="11">
         <v>1</v>
       </c>
       <c r="C134" s="5"/>
@@ -4095,18 +4104,18 @@
       <c r="F134" s="5"/>
       <c r="G134" s="5"/>
       <c r="H134" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J134" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J134" s="13" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="B135" s="20">
+      <c r="A135" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B135" s="11">
         <v>1</v>
       </c>
       <c r="C135" s="5"/>
@@ -4115,19 +4124,19 @@
       <c r="F135" s="5"/>
       <c r="G135" s="5"/>
       <c r="H135" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J135" s="22" t="s">
+        <f>SUM(C135:G135)</f>
+        <v>0</v>
+      </c>
+      <c r="J135" s="13" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="B136" s="20">
-        <v>1</v>
+      <c r="A136" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B136" s="11">
+        <v>2</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
@@ -4135,18 +4144,18 @@
       <c r="F136" s="5"/>
       <c r="G136" s="5"/>
       <c r="H136" s="8">
-        <f t="shared" ref="H136:H178" si="3">SUM(C136:G136)</f>
-        <v>0</v>
-      </c>
-      <c r="J136" s="22" t="s">
+        <f>SUM(C136:G136)</f>
+        <v>0</v>
+      </c>
+      <c r="J136" s="13" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="B137" s="20">
+      <c r="A137" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B137" s="11">
         <v>2</v>
       </c>
       <c r="C137" s="5"/>
@@ -4155,18 +4164,18 @@
       <c r="F137" s="5"/>
       <c r="G137" s="5"/>
       <c r="H137" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J137" s="22" t="s">
+        <f>SUM(C137:G137)</f>
+        <v>0</v>
+      </c>
+      <c r="J137" s="13" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="B138" s="20">
+      <c r="A138" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B138" s="11">
         <v>2</v>
       </c>
       <c r="C138" s="5"/>
@@ -4175,18 +4184,18 @@
       <c r="F138" s="5"/>
       <c r="G138" s="5"/>
       <c r="H138" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J138" s="22" t="s">
+        <f>SUM(C138:G138)</f>
+        <v>0</v>
+      </c>
+      <c r="J138" s="13" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="B139" s="20">
+      <c r="A139" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139" s="11">
         <v>2</v>
       </c>
       <c r="C139" s="5"/>
@@ -4195,18 +4204,18 @@
       <c r="F139" s="5"/>
       <c r="G139" s="5"/>
       <c r="H139" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J139" s="22" t="s">
+        <f>SUM(C139:G139)</f>
+        <v>0</v>
+      </c>
+      <c r="J139" s="13" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="B140" s="20">
+      <c r="A140" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B140" s="11">
         <v>2</v>
       </c>
       <c r="C140" s="5"/>
@@ -4215,18 +4224,18 @@
       <c r="F140" s="5"/>
       <c r="G140" s="5"/>
       <c r="H140" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J140" s="22" t="s">
+        <f>SUM(C140:G140)</f>
+        <v>0</v>
+      </c>
+      <c r="J140" s="13" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="B141" s="20">
+      <c r="A141" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141" s="12">
         <v>2</v>
       </c>
       <c r="C141" s="5"/>
@@ -4235,18 +4244,18 @@
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
       <c r="H141" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J141" s="22" t="s">
+        <f>SUM(C141:G141)</f>
+        <v>0</v>
+      </c>
+      <c r="J141" s="13" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="B142" s="21">
+      <c r="A142" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142" s="12">
         <v>2</v>
       </c>
       <c r="C142" s="5"/>
@@ -4255,18 +4264,18 @@
       <c r="F142" s="5"/>
       <c r="G142" s="5"/>
       <c r="H142" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J142" s="22" t="s">
+        <f>SUM(C142:G142)</f>
+        <v>0</v>
+      </c>
+      <c r="J142" s="13" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="B143" s="21">
+      <c r="A143" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143" s="11">
         <v>2</v>
       </c>
       <c r="C143" s="5"/>
@@ -4275,18 +4284,18 @@
       <c r="F143" s="5"/>
       <c r="G143" s="5"/>
       <c r="H143" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J143" s="22" t="s">
+        <f>SUM(C143:G143)</f>
+        <v>0</v>
+      </c>
+      <c r="J143" s="13" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="B144" s="20">
+      <c r="A144" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B144" s="11">
         <v>2</v>
       </c>
       <c r="C144" s="5"/>
@@ -4295,18 +4304,18 @@
       <c r="F144" s="5"/>
       <c r="G144" s="5"/>
       <c r="H144" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J144" s="22" t="s">
+        <f>SUM(C144:G144)</f>
+        <v>0</v>
+      </c>
+      <c r="J144" s="13" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="B145" s="20">
+      <c r="A145" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B145" s="11">
         <v>2</v>
       </c>
       <c r="C145" s="5"/>
@@ -4315,18 +4324,18 @@
       <c r="F145" s="5"/>
       <c r="G145" s="5"/>
       <c r="H145" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J145" s="22" t="s">
+        <f>SUM(C145:G145)</f>
+        <v>0</v>
+      </c>
+      <c r="J145" s="13" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="B146" s="20">
+      <c r="A146" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B146" s="11">
         <v>2</v>
       </c>
       <c r="C146" s="5"/>
@@ -4335,18 +4344,18 @@
       <c r="F146" s="5"/>
       <c r="G146" s="5"/>
       <c r="H146" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J146" s="22" t="s">
+        <f>SUM(C146:G146)</f>
+        <v>0</v>
+      </c>
+      <c r="J146" s="13" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="B147" s="20">
+      <c r="A147" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B147" s="12">
         <v>2</v>
       </c>
       <c r="C147" s="5"/>
@@ -4355,19 +4364,19 @@
       <c r="F147" s="5"/>
       <c r="G147" s="5"/>
       <c r="H147" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J147" s="22" t="s">
+        <f>SUM(C147:G147)</f>
+        <v>0</v>
+      </c>
+      <c r="J147" s="13" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="B148" s="21">
-        <v>2</v>
+      <c r="A148" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B148" s="12">
+        <v>1</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
@@ -4375,18 +4384,18 @@
       <c r="F148" s="5"/>
       <c r="G148" s="5"/>
       <c r="H148" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J148" s="22" t="s">
+        <f>SUM(C148:G148)</f>
+        <v>0</v>
+      </c>
+      <c r="J148" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="10" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="B149" s="21">
+      <c r="B149" s="11">
         <v>1</v>
       </c>
       <c r="C149" s="5"/>
@@ -4395,18 +4404,18 @@
       <c r="F149" s="5"/>
       <c r="G149" s="5"/>
       <c r="H149" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J149" s="22" t="s">
+        <f>SUM(C149:G149)</f>
+        <v>0</v>
+      </c>
+      <c r="J149" s="13" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="B150" s="20">
+      <c r="A150" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B150" s="11">
         <v>1</v>
       </c>
       <c r="C150" s="5"/>
@@ -4415,18 +4424,18 @@
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
       <c r="H150" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J150" s="22" t="s">
+        <f>SUM(C150:G150)</f>
+        <v>0</v>
+      </c>
+      <c r="J150" s="13" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="B151" s="20">
+      <c r="A151" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B151" s="11">
         <v>1</v>
       </c>
       <c r="C151" s="5"/>
@@ -4435,18 +4444,18 @@
       <c r="F151" s="5"/>
       <c r="G151" s="5"/>
       <c r="H151" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J151" s="22" t="s">
+        <f>SUM(C151:G151)</f>
+        <v>0</v>
+      </c>
+      <c r="J151" s="13" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="B152" s="20">
+      <c r="A152" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B152" s="11">
         <v>1</v>
       </c>
       <c r="C152" s="5"/>
@@ -4455,18 +4464,18 @@
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
       <c r="H152" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J152" s="22" t="s">
+        <f>SUM(C152:G152)</f>
+        <v>0</v>
+      </c>
+      <c r="J152" s="13" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="B153" s="20">
+      <c r="A153" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B153" s="11">
         <v>1</v>
       </c>
       <c r="C153" s="5"/>
@@ -4475,18 +4484,18 @@
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
       <c r="H153" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J153" s="22" t="s">
+        <f>SUM(C153:G153)</f>
+        <v>0</v>
+      </c>
+      <c r="J153" s="13" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="B154" s="20">
+      <c r="A154" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B154" s="11">
         <v>1</v>
       </c>
       <c r="C154" s="5"/>
@@ -4495,18 +4504,18 @@
       <c r="F154" s="5"/>
       <c r="G154" s="5"/>
       <c r="H154" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J154" s="22" t="s">
+        <f>SUM(C154:G154)</f>
+        <v>0</v>
+      </c>
+      <c r="J154" s="13" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="B155" s="20">
+      <c r="A155" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B155" s="11">
         <v>1</v>
       </c>
       <c r="C155" s="5"/>
@@ -4515,18 +4524,18 @@
       <c r="F155" s="5"/>
       <c r="G155" s="5"/>
       <c r="H155" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J155" s="22" t="s">
+        <f>SUM(C155:G155)</f>
+        <v>0</v>
+      </c>
+      <c r="J155" s="13" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="B156" s="20">
+      <c r="A156" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B156" s="12">
         <v>1</v>
       </c>
       <c r="C156" s="5"/>
@@ -4535,18 +4544,18 @@
       <c r="F156" s="5"/>
       <c r="G156" s="5"/>
       <c r="H156" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J156" s="22" t="s">
+        <f>SUM(C156:G156)</f>
+        <v>0</v>
+      </c>
+      <c r="J156" s="13" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="B157" s="21">
+      <c r="A157" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B157" s="12">
         <v>1</v>
       </c>
       <c r="C157" s="5"/>
@@ -4555,18 +4564,18 @@
       <c r="F157" s="5"/>
       <c r="G157" s="5"/>
       <c r="H157" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J157" s="22" t="s">
+        <f>SUM(C157:G157)</f>
+        <v>0</v>
+      </c>
+      <c r="J157" s="13" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="158" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="B158" s="21">
+      <c r="A158" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158" s="11">
         <v>1</v>
       </c>
       <c r="C158" s="5"/>
@@ -4575,18 +4584,18 @@
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
       <c r="H158" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J158" s="22" t="s">
+        <f>SUM(C158:G158)</f>
+        <v>0</v>
+      </c>
+      <c r="J158" s="13" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="B159" s="20">
+      <c r="A159" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159" s="11">
         <v>1</v>
       </c>
       <c r="C159" s="5"/>
@@ -4595,18 +4604,18 @@
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
       <c r="H159" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J159" s="22" t="s">
+        <f>SUM(C159:G159)</f>
+        <v>0</v>
+      </c>
+      <c r="J159" s="13" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="B160" s="20">
+      <c r="A160" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B160" s="11">
         <v>1</v>
       </c>
       <c r="C160" s="5"/>
@@ -4615,18 +4624,18 @@
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
       <c r="H160" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J160" s="22" t="s">
+        <f>SUM(C160:G160)</f>
+        <v>0</v>
+      </c>
+      <c r="J160" s="13" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="B161" s="20">
+      <c r="A161" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B161" s="11">
         <v>1</v>
       </c>
       <c r="C161" s="5"/>
@@ -4635,18 +4644,18 @@
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
       <c r="H161" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J161" s="22" t="s">
+        <f>SUM(C161:G161)</f>
+        <v>0</v>
+      </c>
+      <c r="J161" s="13" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="162" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="B162" s="20">
+      <c r="A162" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B162" s="12">
         <v>1</v>
       </c>
       <c r="C162" s="5"/>
@@ -4655,18 +4664,18 @@
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
       <c r="H162" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J162" s="22" t="s">
+        <f>SUM(C162:G162)</f>
+        <v>0</v>
+      </c>
+      <c r="J162" s="13" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="163" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="B163" s="21">
+      <c r="A163" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B163" s="11">
         <v>1</v>
       </c>
       <c r="C163" s="5"/>
@@ -4675,19 +4684,19 @@
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
       <c r="H163" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J163" s="22" t="s">
+        <f>SUM(C163:G163)</f>
+        <v>0</v>
+      </c>
+      <c r="J163" s="13" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="B164" s="20">
-        <v>1</v>
+      <c r="A164" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B164" s="11">
+        <v>2</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
@@ -4695,18 +4704,18 @@
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
       <c r="H164" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J164" s="22" t="s">
+        <f>SUM(C164:G164)</f>
+        <v>0</v>
+      </c>
+      <c r="J164" s="13" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="165" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="B165" s="20">
+      <c r="A165" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B165" s="11">
         <v>2</v>
       </c>
       <c r="C165" s="5"/>
@@ -4715,18 +4724,18 @@
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
       <c r="H165" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J165" s="22" t="s">
+        <f>SUM(C165:G165)</f>
+        <v>0</v>
+      </c>
+      <c r="J165" s="13" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="B166" s="20">
+      <c r="A166" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B166" s="11">
         <v>2</v>
       </c>
       <c r="C166" s="5"/>
@@ -4735,18 +4744,18 @@
       <c r="F166" s="5"/>
       <c r="G166" s="5"/>
       <c r="H166" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J166" s="22" t="s">
+        <f>SUM(C166:G166)</f>
+        <v>0</v>
+      </c>
+      <c r="J166" s="13" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="167" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="B167" s="20">
+      <c r="A167" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B167" s="12">
         <v>2</v>
       </c>
       <c r="C167" s="5"/>
@@ -4755,18 +4764,18 @@
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
       <c r="H167" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J167" s="22" t="s">
+        <f>SUM(C167:G167)</f>
+        <v>0</v>
+      </c>
+      <c r="J167" s="13" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="B168" s="21">
+      <c r="A168" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B168" s="11">
         <v>2</v>
       </c>
       <c r="C168" s="5"/>
@@ -4775,18 +4784,18 @@
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
       <c r="H168" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J168" s="22" t="s">
+        <f>SUM(C168:G168)</f>
+        <v>0</v>
+      </c>
+      <c r="J168" s="13" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="B169" s="20">
+      <c r="A169" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B169" s="11">
         <v>2</v>
       </c>
       <c r="C169" s="5"/>
@@ -4795,18 +4804,18 @@
       <c r="F169" s="5"/>
       <c r="G169" s="5"/>
       <c r="H169" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J169" s="22" t="s">
+        <f>SUM(C169:G169)</f>
+        <v>0</v>
+      </c>
+      <c r="J169" s="13" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="170" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="B170" s="20">
+      <c r="A170" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B170" s="11">
         <v>2</v>
       </c>
       <c r="C170" s="5"/>
@@ -4815,18 +4824,18 @@
       <c r="F170" s="5"/>
       <c r="G170" s="5"/>
       <c r="H170" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J170" s="22" t="s">
+        <f>SUM(C170:G170)</f>
+        <v>0</v>
+      </c>
+      <c r="J170" s="13" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="171" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="B171" s="20">
+      <c r="A171" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B171" s="11">
         <v>2</v>
       </c>
       <c r="C171" s="5"/>
@@ -4835,18 +4844,18 @@
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
       <c r="H171" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J171" s="22" t="s">
+        <f>SUM(C171:G171)</f>
+        <v>0</v>
+      </c>
+      <c r="J171" s="13" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="172" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="B172" s="20">
+      <c r="A172" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B172" s="12">
         <v>2</v>
       </c>
       <c r="C172" s="5"/>
@@ -4855,18 +4864,18 @@
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
       <c r="H172" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J172" s="22" t="s">
+        <f>SUM(C172:G172)</f>
+        <v>0</v>
+      </c>
+      <c r="J172" s="13" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="173" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="B173" s="21">
+      <c r="A173" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B173" s="12">
         <v>2</v>
       </c>
       <c r="C173" s="5"/>
@@ -4875,18 +4884,18 @@
       <c r="F173" s="5"/>
       <c r="G173" s="5"/>
       <c r="H173" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J173" s="22" t="s">
+        <f>SUM(C173:G173)</f>
+        <v>0</v>
+      </c>
+      <c r="J173" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="10" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="B174" s="21">
+      <c r="B174" s="11">
         <v>2</v>
       </c>
       <c r="C174" s="5"/>
@@ -4895,19 +4904,19 @@
       <c r="F174" s="5"/>
       <c r="G174" s="5"/>
       <c r="H174" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J174" s="22" t="s">
+        <f>SUM(C174:G174)</f>
+        <v>0</v>
+      </c>
+      <c r="J174" s="13" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="175" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="B175" s="20">
-        <v>2</v>
+      <c r="A175" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B175" s="11">
+        <v>3</v>
       </c>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
@@ -4915,18 +4924,18 @@
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
       <c r="H175" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J175" s="22" t="s">
+        <f>SUM(C175:G175)</f>
+        <v>0</v>
+      </c>
+      <c r="J175" s="13" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="176" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="B176" s="20">
+      <c r="A176" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B176" s="11">
         <v>3</v>
       </c>
       <c r="C176" s="5"/>
@@ -4935,18 +4944,18 @@
       <c r="F176" s="5"/>
       <c r="G176" s="5"/>
       <c r="H176" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J176" s="22" t="s">
+        <f>SUM(C176:G176)</f>
+        <v>0</v>
+      </c>
+      <c r="J176" s="13" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="177" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="B177" s="20">
+      <c r="A177" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B177" s="11">
         <v>3</v>
       </c>
       <c r="C177" s="5"/>
@@ -4955,32 +4964,20 @@
       <c r="F177" s="5"/>
       <c r="G177" s="5"/>
       <c r="H177" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J177" s="22" t="s">
+        <f>SUM(C177:G177)</f>
+        <v>0</v>
+      </c>
+      <c r="J177" s="13" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="178" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="B178" s="20">
-        <v>3</v>
-      </c>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
       <c r="G178" s="5"/>
-      <c r="H178" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J178" s="22" t="s">
-        <v>190</v>
-      </c>
+      <c r="H178" s="8"/>
     </row>
     <row r="179" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C179" s="5"/>
@@ -5021,14 +5018,6 @@
       <c r="F183" s="5"/>
       <c r="G183" s="5"/>
       <c r="H183" s="8"/>
-    </row>
-    <row r="184" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C184" s="5"/>
-      <c r="D184" s="5"/>
-      <c r="E184" s="5"/>
-      <c r="F184" s="5"/>
-      <c r="G184" s="5"/>
-      <c r="H184" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -5043,116 +5032,6 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J1 A1 I24:I26">
-    <cfRule type="cellIs" dxfId="21" priority="32" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I23">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63:I65 I67:I70">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I66">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I71">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63:I71">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18:J24">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J127">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J129">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J148">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J137">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J139">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J163:J168">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J152">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J154">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J177">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
